--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSOConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSOConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T08:24:12+00:00</t>
+    <t>2022-04-06T11:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSOConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSOConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T11:19:03+00:00</t>
+    <t>2022-04-06T11:31:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
